--- a/Exceles Resultados Finales/M5_Model_Experiment1_ResponseDetail.xlsx
+++ b/Exceles Resultados Finales/M5_Model_Experiment1_ResponseDetail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\Simio\Exceles Resultados Finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="M5_Model_Experiment1_ResponseDe" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -135,7 +135,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -618,7 +618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -976,9 +976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD1" sqref="AD1:AG2"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="103" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,7 +2872,7 @@
         <v>31352982.474155083</v>
       </c>
       <c r="AG18" s="2">
-        <f t="shared" si="3"/>
+        <f>F18+J18+SUM(S18:U18)*1000000</f>
         <v>201631337.26237178</v>
       </c>
     </row>
